--- a/test_data/zsa_cloud/province_PC_case.xlsx
+++ b/test_data/zsa_cloud/province_PC_case.xlsx
@@ -3,19 +3,63 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2318D4-7A81-4F89-9D8A-6A4B9450968E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09525FE-66A4-44BB-A488-9D2E61DC03ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="农村家宴" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D01D8566-5AC7-45DA-9052-77A11A58167D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+关键字test_not_empty,用于验证列表是否为空</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="102">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +96,6 @@
     <t>application/x-www-form-urlencoded</t>
   </si>
   <si>
-    <t>keyword(支持正则)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,30 +115,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询备案登记列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/pro-api/zsaledger/html/pc/partyRecord/selectPcById</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看备案详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id=1251</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/pro-api/zsaledger/html/pc/partyGuide/selectPcAll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>partyRecordId=1251&amp;page=1&amp;pageSize=10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/pro-api/zsaledger/html/pc/partyGuide/selectPcById</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id=804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/pro-api/zsaledger/html/jgd/partyGuide/selectGradeAnswer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>partyRecordId=1251&amp;page=1&amp;pageSize=10&amp;healthCertificate=&amp;keyword=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/pro-api/zsaledger/html/jgd/partyRecord/selectRiskCommitmentTemplateBySupId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,14 +182,6 @@
     <t>10000</t>
   </si>
   <si>
-    <t>查看厨师详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看厨师列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/pro-api/zsaledger/html/pc/partyFamily/insertPc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,18 +190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看家宴中心列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑家宴中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看家宴中心详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑指定厨师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id=2163</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/pro-api/zsaledger/html/pc/partyFamily/selectPcAll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +255,214 @@
   </si>
   <si>
     <t>id=4047&amp;superviseId=900011082&amp;thirdSuperviseId=&amp;superviseName=测试监管局-街道2&amp;mzt=&amp;mztUrl=&amp;name=自动测试厨师-勿删&amp;sex=1&amp;sexName=男&amp;idCard=990110199012121234&amp;idCardAll=990110199012121234&amp;age=&amp;birthday=2010-06-01&amp;education=339&amp;educationName=大专&amp;phone=19911112222&amp;address=&amp;addressDetail=&amp;healthTime=2021-06-01&amp;healthImg=/sp20206/M00/02/58/Chibol7xq9CAVwNVAAhem1JOY4I960.jpg&amp;chefImg=&amp;colorGrade=红榜&amp;healthCertificate=1&amp;healthCertificateName=有效&amp;isTrain=&amp;isTrainName=&amp;trainNum=1&amp;type=1&amp;typeName=厨师&amp;regionName=浙江省衢州市龙游县湖镇镇&amp;remark=&amp;status=&amp;reentry=&amp;totalPoints=&amp;totalDeductMarks=&amp;province=12&amp;provinceName=浙江省&amp;city=129&amp;cityName=衢州市&amp;area=1372&amp;areaName=龙游县&amp;street=137202&amp;streetName=湖镇镇&amp;village=&amp;villageName=&amp;createUser=774750&amp;createTime=&amp;updateUser=774750&amp;updateTime=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pro-api/zsaledger/html/pc/partyRecord/selectPcAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;page=1&amp;pageSize=10&amp;keyword=自动化测试-勿删&amp;startTime=&amp;endTime=&amp;partyType=&amp;isGuide=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化测试-勿删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=1284</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partyRecordId=1284&amp;page=1&amp;pageSize=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试监管局-省级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partyRecordId=1284&amp;page=1&amp;pageSize=10&amp;healthCertificate=&amp;keyword=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pro-api/zsaledger/html/pc/partyChef/selectPcAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;education=&amp;page=1&amp;pageSize=10&amp;healthCertificate=&amp;keyword=删除厨师测试&amp;startTime=&amp;endTime=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除厨师测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询新增的厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_not_empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动测试厨师-勿删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;page=1&amp;pageSize=10&amp;buildInfo=&amp;keyword=自动家宴中心-勿删&amp;startCreateTime=&amp;endCreateTime=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动家宴中心-勿删</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询新增的家宴中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;page=1&amp;pageSize=10&amp;buildInfo=&amp;keyword=删除家宴中心测试&amp;startCreateTime=&amp;endCreateTime=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除家宴中心测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增身份证已存在的厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增联系电话已存在的厨师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=身份证存在&amp;sex=1&amp;idCard=990110199012121238&amp;birthday=2015-06-07&amp;education=336&amp;phone=18721212121&amp;healthTime=&amp;healthCertificate=1&amp;regionName=浙江省衢州市龙游县湖镇镇&amp;superviseId=900011082&amp;address=&amp;trainNum=1&amp;addressDetail=&amp;remark=&amp;healthImg=/sp20206/M00/02/6D/Chibol7zAN-ALN7IAAJbAiasotY757.jpg&amp;colorGrade=&amp;chefImg=&amp;type=1&amp;createUser=774750&amp;province=12&amp;provinceName=浙江省&amp;city=129&amp;cityName=衢州市&amp;area=1372&amp;areaName=龙游县&amp;street=137202&amp;streetName=湖镇镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=手机号存在&amp;sex=1&amp;idCard=990110199012121299&amp;birthday=2015-06-07&amp;education=336&amp;phone=19011099090&amp;healthTime=&amp;healthCertificate=1&amp;regionName=浙江省衢州市龙游县湖镇镇&amp;superviseId=900011082&amp;address=&amp;trainNum=1&amp;addressDetail=&amp;remark=&amp;healthImg=/sp20206/M00/02/6D/Chibol7zAN-ALN7IAAJbAiasotY757.jpg&amp;colorGrade=&amp;chefImg=&amp;type=1&amp;createUser=774750&amp;province=12&amp;provinceName=浙江省&amp;city=129&amp;cityName=衢州市&amp;area=1372&amp;areaName=龙游县&amp;street=137202&amp;streetName=湖镇镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=4047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询备案登记列表-全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询备案登记列表-已指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询备案登记列表-未指导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;page=1&amp;pageSize=10&amp;keyword=&amp;startTime=&amp;endTime=&amp;partyType=&amp;isGuide=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;page=1&amp;pageSize=10&amp;keyword=&amp;startTime=&amp;endTime=&amp;partyType=&amp;isGuide=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙政钉删除备案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询备案登记列表-婚宴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;page=1&amp;pageSize=10&amp;keyword=&amp;startTime=&amp;endTime=&amp;partyType=345&amp;isGuide=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看厨师列表-全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看厨师列表-有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看厨师列表-大专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;education=&amp;page=1&amp;pageSize=10&amp;healthCertificate=1&amp;keyword=&amp;startTime=&amp;endTime=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;education=339&amp;page=1&amp;pageSize=10&amp;healthCertificate=&amp;keyword=&amp;startTime=&amp;endTime=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看家宴中心列表-全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看家宴中心列表-建设中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supId=3677307&amp;page=1&amp;pageSize=10&amp;buildInfo=2&amp;keyword=&amp;startCreateTime=&amp;endCreateTime=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看现场指导记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询备案登记列表-备案名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指定备案详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指定厨师详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看家宴中心列表-家宴中心名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看指定家宴中心详情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +484,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,12 +521,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,487 +875,854 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="36.625" customWidth="1"/>
-    <col min="3" max="3" width="48.375" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="6" max="6" width="145.875" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="40.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="81" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="F22" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1136,11 +1733,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{9EF99A51-C610-4A88-87A1-2F15033A3029}">
       <formula1>"application/x-www-form-urlencoded,application/json,multipart/form-data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18" xr:uid="{C104A973-5470-4EEF-B931-D814EA06A82C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J30" xr:uid="{C104A973-5470-4EEF-B931-D814EA06A82C}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>